--- a/assets/disciplinas/LOQ4050.xlsx
+++ b/assets/disciplinas/LOQ4050.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-7,EM-9,EQD-9,EQN-10</t>
+    <t>EF-7,EQD-9,EQN-10</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4050.xlsx
+++ b/assets/disciplinas/LOQ4050.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,9 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1) Formativos: Propiciar ao educando as condições básicas e necessárias para a sua formação profissional. 
-2) Informativos: fornecer ao educando os conceitos básicos para o entendimento, assessoramento e acompanhamento de Projetos na Indústria Química seguindo metodologia especifica.
-3) Automatizantes: desenvolver no educando o raciocínio analítico, obedecendo metodologia sistemática aplicada em projetos.</t>
+    <t>5840671 - Francisco José Moreira Chaves</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -84,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840671 - Francisco José Moreira Chaves</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Mercado - Estimativa de investimento: - Análise Econômica de Investimentos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -102,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Mercado - evolução do mercado - Marketing e análise de mercado - Estimativa de investimento: - capital de giro - capital fixo - bens tangíveis/bens intangíveis - investimentos preliminares/investimentos reais - custos fixos/custos variáveis, depreciação, Conceito econômico de externalidades e abordagens teóricas, Elementos para internalizar as externalidades, Controle direto ou regularização na empresa, métodos indiretos c dados observados, métodos indiretos c dados supostos, métodos diretos c dados supostos, métodos diteros c dados observados, Análise Econômica de Investimentos (aspectos básicos) - Técnicas Estatísticas e taxas de juros - Aspectos básicos de Engenharia Econômica  Distribuição Beta para análise em ambiente de risco.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -117,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Por meio de aulas presenciais, com apresentação dos fundamentos, e resolução de exercícios e exemplos aplicativos com uso de tabelas e normas específicas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Avaliação será: (P1 + 2P2)/3 Onde: P1: Prova Individual - c/ peso-1 P2: : Prova Individual - c/ peso-2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova de exame.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Engenharia econômica e análise de custos. Henrique Hirschfeld. 7 ed. editora atlas. 2007</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -670,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4050.xlsx
+++ b/assets/disciplinas/LOQ4050.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-7,EQD-9,EQN-10</t>
+    <t>EF-5,EQD-9,EQN-10</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4050.xlsx
+++ b/assets/disciplinas/LOQ4050.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>1) Formativos: Propiciar ao educando as condições básicas e necessárias para a sua formação profissional. 
+2) Informativos: fornecer ao educando os conceitos básicos para o entendimento, assessoramento e acompanhamento de Projetos na Indústria Química seguindo metodologia especifica.
+3) Automatizantes: desenvolver no educando o raciocínio analítico, obedecendo metodologia sistemática aplicada em projetos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>1 ) Formative : Offer the learner the basic conditions necessary for their vocational training.2 ) Informational : provide the student the basics to understanding, advice and monitoring of Projects in the Chemical Industry following specific methodology .3 ) :The learner develop analytical reasoning , following systematic methodology applied in projects .</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840671 - Francisco José Moreira Chaves</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>1 ) Formative : Offer the learner the basic conditions necessary for their vocational training.2 ) Informational : provide the student the basics to understanding, advice and monitoring of Projects in the Chemical Industry following specific methodology .3 ) :The learner develop analytical reasoning , following systematic methodology applied in projects .</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Mercado - Estimativa de investimento: - Análise Econômica de Investimentos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +102,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Mercado - evolução do mercado - Marketing e análise de mercado - Estimativa de investimento: - capital de giro - capital fixo - bens tangíveis/bens intangíveis - investimentos preliminares/investimentos reais - custos fixos/custos variáveis, depreciação, Conceito econômico de externalidades e abordagens teóricas, Elementos para internalizar as externalidades, Controle direto ou regularização na empresa, métodos indiretos c dados observados, métodos indiretos c dados supostos, métodos diretos c dados supostos, métodos diteros c dados observados, Análise Econômica de Investimentos (aspectos básicos) - Técnicas Estatísticas e taxas de juros - Aspectos básicos de Engenharia Econômica  Distribuição Beta para análise em ambiente de risco.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +117,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Por meio de aulas presenciais, com apresentação dos fundamentos, e resolução de exercícios e exemplos aplicativos com uso de tabelas e normas específicas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Por meio de aulas presenciais, com apresentação dos fundamentos, e resolução de exercícios e exemplos aplicativos com uso de tabelas e normas específicas.</t>
+    <t>A Avaliação será: (P1 + 2P2)/3 Onde: P1: Prova Individual - c/ peso-1 P2: : Prova Individual - c/ peso-2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Avaliação será: (P1 + 2P2)/3 Onde: P1: Prova Individual - c/ peso-1 P2: : Prova Individual - c/ peso-2</t>
+    <t>Prova de exame.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova de exame.</t>
+    <t>Engenharia econômica e análise de custos. Henrique Hirschfeld. 7 ed. editora atlas. 2007</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +629,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +670,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
